--- a/Data/Transitions/19521953Translation.xlsx
+++ b/Data/Transitions/19521953Translation.xlsx
@@ -469,6 +469,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
   </si>
   <si>
     <t>{319.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4061,29 +4061,29 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>557</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>557</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4105,29 +4105,29 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>558</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
